--- a/BalanceSheet/PKI_bal.xlsx
+++ b/BalanceSheet/PKI_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1579000.0</v>
+        <v>515000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5773000.0</v>
+        <v>487000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-71949000.0</v>
+        <v>478000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-54758000.0</v>
+        <v>393000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>38760000.0</v>
+        <v>357000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>391820000.0</v>
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>46362000.0</v>
+        <v>327000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-4516000.0</v>
+        <v>258000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>17743000.0</v>
+        <v>255000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3164000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>41394000.0</v>
+        <v>236000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>190261000.0</v>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-29121000.0</v>
+        <v>-66000000.0</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-61353000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
